--- a/tiles analysis/100424_analysis_by_image_NEW.xlsx
+++ b/tiles analysis/100424_analysis_by_image_NEW.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.04411764705882353</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06024096385542169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02150537634408602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02061855670103093</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="8">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.05063291139240506</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1467889908256881</v>
+        <v>0.07777777777777778</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1338582677165354</v>
+        <v>0.0782608695652174</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="C14" t="n">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="D14" t="n">
-        <v>7.297872340425532</v>
+        <v>2.922330097087379</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>698</v>
+        <v>593</v>
       </c>
       <c r="C15" t="n">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="D15" t="n">
-        <v>10.26470588235294</v>
+        <v>4.526717557251908</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D16" t="n">
-        <v>10.04545454545454</v>
+        <v>4.219047619047619</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="18">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="21">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09615384615384616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="24">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="27">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
   </sheetData>
